--- a/anlysis/2017-05-01回测-50.xlsx
+++ b/anlysis/2017-05-01回测-50.xlsx
@@ -190,7 +190,7 @@
     <t>600119.SH</t>
   </si>
   <si>
-    <t>国华网安</t>
+    <t>ST国华</t>
   </si>
   <si>
     <t>明星电力</t>
